--- a/semtle_signup_test.xlsx
+++ b/semtle_signup_test.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,8 +425,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="40" customWidth="1" min="3" max="3"/>
-    <col width="105" customWidth="1" min="5" max="5"/>
+    <col width="80" customWidth="1" min="3" max="3"/>
+    <col width="40" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="100" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -442,15 +445,25 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>입력 값</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>기대 값</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>날짜</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>합격 여부</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>오류 코드</t>
         </is>
@@ -465,10 +478,244 @@
           <t>정상 시나리오</t>
         </is>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>44956.61607220507</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['201500011', 't1234', 't1234', 'Gorani', 'HongGilDong', '201500011', 'test@naver.com', '01012341234']</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
+        <is>
+          <t>회원가입 완료 알림창 등장</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>44959.03583679206</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>아이디 입력란 공백</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['', 't1234', 't1234', 'Gorani', 'HongGilDong', '201500011', 'test@naver.com', '01012341234']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>회원가입 실패 알림 창 등장</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>44959.03603621269</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PW 입력란 공백</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['201500011', '', 't1234', 'Gorani', 'HongGilDong', '201500011', 'test@naver.com', '01012341234']</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>회원가입 실패 알림 창 등장</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>44959.03622488125</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PW 확인란 공백</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['201500011', 't1234', '', 'Gorani', 'HongGilDong', '201500011', 'test@naver.com', '01012341234']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>회원가입 실패 알림 창 등장</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>44959.03641579425</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>닉네임 공백</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['201500011', 't1234', 't1234', '', 'HongGilDong', '201500011', 'test@naver.com', '01012341234']</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>회원가입 실패 알림 창 등장</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>44959.03660220951</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>이름 공백</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['201500011', 't1234', 't1234', 'Gorani', '', '201500011', 'test@naver.com', '01012341234']</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>회원가입 실패 알림 창 등장</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>44959.03678866327</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>학번 공백</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['201500011', 't1234', 't1234', 'Gorani', 'HongGilDong', '', 'test@naver.com', '01012341234']</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>회원가입 실패 알림 창 등장</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>44959.0369762175</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>이메일 공백</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['201500011', 't1234', 't1234', 'Gorani', 'HongGilDong', '201500011', '', '01012341234']</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>회원가입 실패 알림 창 등장</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>44959.03716175915</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>핸드폰 번호 공백</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['201500011', 't1234', 't1234', 'Gorani', 'HongGilDong', '201500011', 'test@naver.com', '']</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>회원가입 실패 알림 창 등장</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>44959.0373708466</v>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>True</t>
         </is>
